--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-VH-verhardingen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-VH-verhardingen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4DA2E114-F33B-4933-92D9-1A272DA560A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{83117D78-BAE7-4065-B726-03DE2F61BD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{880E9A28-A5A0-4213-96F2-10C02B5BE668}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{172DD450-0340-4474-A8E0-B98A781671F3}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-VH-verhard" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17397" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17793" uniqueCount="1158">
   <si>
     <t>objectURI</t>
   </si>
@@ -454,30 +454,30 @@
     <t>http://digitalbuildingdata.tech/nlcs/def/11b59ca3-8808-4424-8c21-81bb104f57fd</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/cb147b2d-9135-4a9d-af23-6795cf07896d</t>
+  </si>
+  <si>
+    <t>SVH-GRAS_GESTABILISEERD-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bde3f615-2281-49d9-88e4-ea0e967eb648</t>
+  </si>
+  <si>
+    <t>AVH-GRAS_GESTABILISEERD-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/f2e1799d-8ec2-40e5-af02-bc7e90d22f27</t>
+  </si>
+  <si>
+    <t>V-SVH-GRAS_GESTABILISEERD-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/4b79ef10-4679-450a-9c7a-bded296bd0f1</t>
   </si>
   <si>
     <t>SVH-GRAS_GESTABILISEERD</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/bde3f615-2281-49d9-88e4-ea0e967eb648</t>
-  </si>
-  <si>
-    <t>AVH-GRAS_GESTABILISEERD-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/f2e1799d-8ec2-40e5-af02-bc7e90d22f27</t>
-  </si>
-  <si>
-    <t>V-SVH-GRAS_GESTABILISEERD-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/cb147b2d-9135-4a9d-af23-6795cf07896d</t>
-  </si>
-  <si>
-    <t>SVH-GRAS_GESTABILISEERD-SO</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/d67b61b9-a4a4-48d6-af2d-6898a4830b26</t>
   </si>
   <si>
@@ -907,6 +907,18 @@
     <t>SVH-HALFVERHARDING</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/8a1093e6-8ad1-40bd-853a-f83abdcf3f74</t>
+  </si>
+  <si>
+    <t>AVH-HALFVERHARDING_GRIND_03-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/3e18c90d-3ea4-42cf-83c9-c89c0282ec15</t>
+  </si>
+  <si>
+    <t>AVH-HALFVERHARDING_GRIND_01-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/3348adb0-ce45-4d56-84da-50152ec91362</t>
   </si>
   <si>
@@ -919,16 +931,10 @@
     <t>AVH-HALFVERHARDING_GRIND_02-SO</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/8a1093e6-8ad1-40bd-853a-f83abdcf3f74</t>
-  </si>
-  <si>
-    <t>AVH-HALFVERHARDING_GRIND_03-SO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/3e18c90d-3ea4-42cf-83c9-c89c0282ec15</t>
-  </si>
-  <si>
-    <t>AVH-HALFVERHARDING_GRIND_01-SO</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/beb5a7db-683c-4b4c-9249-5f6664f8e8f0</t>
+  </si>
+  <si>
+    <t>AVH-HALFVERHARDING-SOD</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/fe4d7ee3-14df-4c0d-8f91-9e3515d5441f</t>
@@ -937,30 +943,24 @@
     <t>AVH-HALFVERHARDING_SCHELPEN-SOD</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/beb5a7db-683c-4b4c-9249-5f6664f8e8f0</t>
-  </si>
-  <si>
-    <t>AVH-HALFVERHARDING-SOD</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/4c1c38df-261f-4068-bd75-9dff036007bf</t>
   </si>
   <si>
     <t>AVH-HALFVERHARDING-SO</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/154999c9-75ac-4f99-a3b2-5409ab717884</t>
+  </si>
+  <si>
+    <t>AVH-HALFVERHARDING</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/bd22af6f-f67a-4a2d-839d-6a1f49abd4da</t>
   </si>
   <si>
     <t>AVH-HALFVERHARDING_GRIND-SOD</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/154999c9-75ac-4f99-a3b2-5409ab717884</t>
-  </si>
-  <si>
-    <t>AVH-HALFVERHARDING</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/5d977746-adfe-4753-8e59-0fe0f9377f7b</t>
   </si>
   <si>
@@ -1042,22 +1042,40 @@
     <t>V-VH-RWSBAND-SO</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/54b346eb-d58a-4b32-b7b0-c2a06c7883e7</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_RWS_110 220X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7b5a80ce-20b1-4e64-a2b2-421a0fe5bc62</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_RWS</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/f22c04ff-d8da-4e6f-a334-12ddd3c989ef</t>
   </si>
   <si>
     <t>SVH-KANTOPSLUITING_RWS_110 220X200-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/7b5a80ce-20b1-4e64-a2b2-421a0fe5bc62</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_RWS</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/54b346eb-d58a-4b32-b7b0-c2a06c7883e7</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_RWS_110 220X250-D</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/f787413a-f7cb-4dc7-88e3-93d54ff4fcb3</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_RWS_110 220X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/a39c1883-58e3-4700-8737-7d1a5d6d895d</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_RWS_110 220X160-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/c183a29e-09d2-48ba-a0fa-5d24e5827715</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_RWS_110 220X160-D</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/4ae3d0b6-38cf-4961-aa69-6c7be27f089a</t>
@@ -1066,24 +1084,6 @@
     <t>B-SVH-KANTOPSLUITING_RWS_110 220X200-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/f787413a-f7cb-4dc7-88e3-93d54ff4fcb3</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_RWS_110 220X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/c183a29e-09d2-48ba-a0fa-5d24e5827715</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_RWS_110 220X160-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/a39c1883-58e3-4700-8737-7d1a5d6d895d</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_RWS_110 220X160-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/fb384bbc-bcc8-45cc-aef9-06f8d86b6fd0</t>
   </si>
   <si>
@@ -1102,28 +1102,118 @@
     <t>V-VH-OPSLUITBAND-SO</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/c6e96f15-8be1-4dfa-81b5-52bd2e16a752</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_80X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1e7ecd01-b994-4da4-b643-c972baa5c947</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_60X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1302897a-3990-4e93-ba9f-3f3c9b3c0a42</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_OPSLUITBAND_150X300-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/a628fc1b-8956-4687-9bdd-33310a558cbd</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_60X150-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7fa7a3d2-b56a-4cce-ba96-2d7e18666c19</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_150X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/9c3d0bc2-ef49-4b37-9ee2-63cad4623709</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_300X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d7f8900c-7e22-4cde-b44e-fa935b0071c3</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_OPSLUITBAND_300X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/98881d54-407c-4e7b-b11e-2144ef6353af</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_100X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/8aa12ab9-9f74-4c6d-b5d5-c618b9d8dded</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_50X150-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/dfd2cf9a-6fed-4124-9675-1939251742f0</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_OPSLUITBAND_120X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/67808fc3-7027-436e-9c4d-a54e99e84df3</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_OPSLUITBAND_200X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1edb98c3-1139-4d33-bab3-c5124c4dd3ee</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_OPSLUITBAND_100X300-D</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/d98ce915-829b-4ecd-aa6c-68c9edfc7c8b</t>
   </si>
   <si>
     <t>SVH-KANTOPSLUITING_OPSLUITBAND_150X400-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1302897a-3990-4e93-ba9f-3f3c9b3c0a42</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_OPSLUITBAND_150X300-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/dfd2cf9a-6fed-4124-9675-1939251742f0</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_OPSLUITBAND_120X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/c6e96f15-8be1-4dfa-81b5-52bd2e16a752</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_80X200-D</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/2f49203d-71d4-4286-b026-d29ad5db4118</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_OPSLUITBAND</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/793ab91e-7afc-44bf-abc7-cf5c528a7e85</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_100X300-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/ff223382-1b3e-461f-8884-9a95ddc5bd5f</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_150X300-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/94e267af-8ded-4a8f-8bb7-3184337a1740</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_200X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/c40dd8ef-8afd-42dd-8f65-27b0134b2964</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_OPSLUITBAND_100X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0d5c16f5-b2b2-42e7-bfc1-1659bd4885d5</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_OPSLUITBAND_150X250-D</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/d2f426df-d788-4a33-8a58-d2a4b93296fd</t>
@@ -1132,28 +1222,16 @@
     <t>SVH-KANTOPSLUITING_OPSLUITBAND_60X200-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/a628fc1b-8956-4687-9bdd-33310a558cbd</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_60X150-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1edb98c3-1139-4d33-bab3-c5124c4dd3ee</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_OPSLUITBAND_100X300-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/2f49203d-71d4-4286-b026-d29ad5db4118</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_OPSLUITBAND</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/7fa7a3d2-b56a-4cce-ba96-2d7e18666c19</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_150X250-D</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/96947f4c-23d1-467d-8b4c-adfc17645db3</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_150X400-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/4b4e79aa-56af-476c-90c5-89d9a64ea10c</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_OPSLUITBAND_60X150-D</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/45da4454-059d-4dda-adb7-fcff0b3906d4</t>
@@ -1162,48 +1240,6 @@
     <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_120X250-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/94e267af-8ded-4a8f-8bb7-3184337a1740</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_200X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/0d5c16f5-b2b2-42e7-bfc1-1659bd4885d5</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_OPSLUITBAND_150X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/c40dd8ef-8afd-42dd-8f65-27b0134b2964</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_OPSLUITBAND_100X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/67808fc3-7027-436e-9c4d-a54e99e84df3</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_OPSLUITBAND_200X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/8aa12ab9-9f74-4c6d-b5d5-c618b9d8dded</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_50X150-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/793ab91e-7afc-44bf-abc7-cf5c528a7e85</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_100X300-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/98881d54-407c-4e7b-b11e-2144ef6353af</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_100X200-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/26245d22-4c49-42a5-adb5-962e57bcb1c0</t>
   </si>
   <si>
@@ -1216,42 +1252,6 @@
     <t>SVH-KANTOPSLUITING_OPSLUITBAND_80X200-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d7f8900c-7e22-4cde-b44e-fa935b0071c3</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_OPSLUITBAND_300X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1e7ecd01-b994-4da4-b643-c972baa5c947</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_60X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/96947f4c-23d1-467d-8b4c-adfc17645db3</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_150X400-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/4b4e79aa-56af-476c-90c5-89d9a64ea10c</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_OPSLUITBAND_60X150-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/ff223382-1b3e-461f-8884-9a95ddc5bd5f</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_150X300-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/9c3d0bc2-ef49-4b37-9ee2-63cad4623709</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_OPSLUITBAND_300X250-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/36b236dc-9433-4982-8175-595fc772ca4d</t>
   </si>
   <si>
@@ -1276,22 +1276,124 @@
     <t>V-VH-SCHEIDINGSBAND-SO</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d4b6347e-acb7-49eb-af75-f83396ecc9d5</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_470 500X100-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/66a5a62a-1a49-4e95-baee-58ed227e696a</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_160 200X180-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/503510c3-0f07-4be9-8933-b82b8e7d0c22</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_360 400X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/6b0877e2-6d57-4678-9164-dd2e8d1f0b0d</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_220 440X160-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/e512eb68-d8e5-4328-94b4-4232256e1d08</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_115 345X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/87757ca3-8bbb-4270-a53b-aa5fd477ac83</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_220 440X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/ff6c40b5-cc72-40b3-b461-c36f129c8ed2</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_115 345X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d74c83eb-5c68-426b-954c-76d318c2a81b</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_220 440X160-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/dd6f6eb8-bc23-4450-a9cd-58ec5484a860</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_150 390X130-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/19466893-70eb-415e-b341-659cb59078ce</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_470 500X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/dba0a369-d488-4de7-b49a-bab53fff6c14</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_110 220X130 150-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7cec94bc-0bea-4acd-a3e0-c585458ba0a4</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_160 200X180-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/b29a78a1-d341-44c0-8636-5c33811b31b3</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_110 220X130 150-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/f6193160-c125-4dab-8958-dfeef9606a39</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/39de15ed-8d2e-4e16-98bc-b28ccfab0ad8</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_220 440X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/17c22744-6336-4676-abda-e0ed7fecdb49</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_100 300X100-D</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/a82ddbfd-0a10-401c-8033-d34fb74ac586</t>
   </si>
   <si>
     <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_360 400X200-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/87757ca3-8bbb-4270-a53b-aa5fd477ac83</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_220 440X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/19466893-70eb-415e-b341-659cb59078ce</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_470 500X200-D</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/4da09d64-1db4-4a72-9733-454b879fead3</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_470 500X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/57a2f70e-8595-47bd-b57f-6f58efc28554</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_100 300X100-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/3219fd3e-941b-4191-91d2-ee05f42751bd</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_470 500X100-D</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/2f547d20-8ae0-449f-8cc3-416458fa970e</t>
@@ -1300,108 +1402,6 @@
     <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_150 390X130-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/57a2f70e-8595-47bd-b57f-6f58efc28554</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_100 300X100-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/b29a78a1-d341-44c0-8636-5c33811b31b3</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_110 220X130 150-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/3219fd3e-941b-4191-91d2-ee05f42751bd</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_470 500X100-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/ff6c40b5-cc72-40b3-b461-c36f129c8ed2</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_115 345X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/503510c3-0f07-4be9-8933-b82b8e7d0c22</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_360 400X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/39de15ed-8d2e-4e16-98bc-b28ccfab0ad8</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_220 440X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/dba0a369-d488-4de7-b49a-bab53fff6c14</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_110 220X130 150-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d4b6347e-acb7-49eb-af75-f83396ecc9d5</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_470 500X100-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/e512eb68-d8e5-4328-94b4-4232256e1d08</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_115 345X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/4da09d64-1db4-4a72-9733-454b879fead3</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_470 500X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/66a5a62a-1a49-4e95-baee-58ed227e696a</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_160 200X180-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/6b0877e2-6d57-4678-9164-dd2e8d1f0b0d</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_220 440X160-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d74c83eb-5c68-426b-954c-76d318c2a81b</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_220 440X160-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/f6193160-c125-4dab-8958-dfeef9606a39</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/17c22744-6336-4676-abda-e0ed7fecdb49</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_SCHEIDINGSBAND_100 300X100-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/dd6f6eb8-bc23-4450-a9cd-58ec5484a860</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_150 390X130-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/7cec94bc-0bea-4acd-a3e0-c585458ba0a4</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_SCHEIDINGSBAND_160 200X180-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/897bb006-6bf7-43de-badf-3dfdcbb30dd1</t>
   </si>
   <si>
@@ -1456,18 +1456,18 @@
     <t>SVH-KANTOPSLUITING_HAVENBAND</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/12ffff4d-adc6-4f6d-a3e1-1ded750e05df</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_HAVENBAND_400X400-D</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/cb4dc34d-97f9-4182-aaa9-6a2258801d69</t>
   </si>
   <si>
     <t>SVH-KANTOPSLUITING_HAVENBAND_400X400-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/12ffff4d-adc6-4f6d-a3e1-1ded750e05df</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_HAVENBAND_400X400-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/71f1d393-0573-4b39-bc7d-bca6ee283d76</t>
   </si>
   <si>
@@ -1486,96 +1486,96 @@
     <t>V-VH-TROTTOIRBAND-SO</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/6b26ae06-c33c-41a8-85a5-391166ed71b0</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X160-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bd896609-7959-4039-a274-9aacd43c9908</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X160-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/dbcc7c4f-3e7d-41e7-bc40-49100bd5edf1</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_TROITTOIRBAND</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d150bdb5-b92f-46d4-87f5-39da0d9cc3f9</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1c72fb61-f61d-4d0c-90c2-2e2a876a3c65</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/886f3821-594f-4f1d-9901-434aa04ec23d</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/5205c141-1d10-4484-b974-8f86ca2eb2ac</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/313ed674-997b-4341-9724-ec097bb2a474</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X160-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/8d2f643d-8146-4353-b1f9-b6585fab2855</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/8fde84e5-3b14-489a-8683-067b32530e67</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X160-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/b8cc1ded-9ca9-4829-b8da-7ab5d8a3318b</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X300-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/30f4af39-17d8-4e0a-9285-7cef726859e7</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X200-D</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/74e9ea6a-baed-463e-a246-7a4859e37401</t>
   </si>
   <si>
     <t>SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X250-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/bd896609-7959-4039-a274-9aacd43c9908</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X160-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/30f4af39-17d8-4e0a-9285-7cef726859e7</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X200-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/4a137fed-01cb-4837-974f-bd06871f9ed6</t>
   </si>
   <si>
     <t>SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X300-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/6b26ae06-c33c-41a8-85a5-391166ed71b0</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X160-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1c72fb61-f61d-4d0c-90c2-2e2a876a3c65</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/886f3821-594f-4f1d-9901-434aa04ec23d</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d150bdb5-b92f-46d4-87f5-39da0d9cc3f9</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/dbcc7c4f-3e7d-41e7-bc40-49100bd5edf1</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_TROITTOIRBAND</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/8fde84e5-3b14-489a-8683-067b32530e67</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_TROTTOIRBAND_180 200X160-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/5205c141-1d10-4484-b974-8f86ca2eb2ac</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/8d2f643d-8146-4353-b1f9-b6585fab2855</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/313ed674-997b-4341-9724-ec097bb2a474</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X160-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/35f166a6-17ea-49d6-9c6e-2ca6ac1d3572</t>
   </si>
   <si>
     <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X250-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/b8cc1ded-9ca9-4829-b8da-7ab5d8a3318b</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_TROTTOIRBAND_130 150X300-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/62dc28b8-5927-43c5-acf7-0029168b5b13</t>
   </si>
   <si>
@@ -1594,6 +1594,24 @@
     <t>V-VH-GAZONBAND-SO</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/8ea0a82b-a526-4ba3-94d8-6933b1f8fec4</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_GAZONBAND_120X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/318f70e8-033d-4bca-8bf9-01522bbf34b9</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GAZONBAND_120X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0155e542-5424-4ac5-abe7-d45b9e8b18fa</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_GAZONBAND_150X400-D</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/edf2b299-9cb6-4ded-8ab3-a128edacc5cd</t>
   </si>
   <si>
@@ -1618,24 +1636,6 @@
     <t>SVH-KANTOPSLUITING_GAZONBAND</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/8ea0a82b-a526-4ba3-94d8-6933b1f8fec4</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_GAZONBAND_120X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/318f70e8-033d-4bca-8bf9-01522bbf34b9</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GAZONBAND_120X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/0155e542-5424-4ac5-abe7-d45b9e8b18fa</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_GAZONBAND_150X400-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/76f85557-f1e3-4ce5-a650-07bc9d5b05a8</t>
   </si>
   <si>
@@ -1660,22 +1660,112 @@
     <t>V-VH-GELEIDEBAND-SO</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/9c9c6c2c-bb8b-4a9c-8f5c-48c78604bee6</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GELEIDEBAND</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/4cc8d227-3458-4fc1-9ab0-d3b3148260ac</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GELEIDEBAND_60_120X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/e82b950b-3624-4800-8b55-9af33768b8f0</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GELEIDEBAND_70_200X150-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1fe3fca5-0904-44b3-a371-039f8bf8de1a</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_100_200X270-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7c9495fb-4f95-4a06-ace1-3db2fc53d01f</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_30_80X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/026e0bb0-ab52-4cdc-971b-97200dbec04f</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_100_300X200-D</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/0ac3feee-c233-46a1-8a4b-b0ef00802d4d</t>
   </si>
   <si>
     <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_190_200X160-D</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/8ab16207-0aaa-4c0d-9899-9b0b57139631</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_100_250X170-D</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/70c529d5-e5a7-4ddc-a092-1b641480b0d2</t>
   </si>
   <si>
     <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_50_200X200-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/8ab16207-0aaa-4c0d-9899-9b0b57139631</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_100_250X170-D</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0b0f01d0-69cf-420d-8ab9-d72d7a9fada4</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_70_200X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/39eadf68-5aa6-4038-8ddc-ca4b6ad7f23e</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GELEIDEBAND_30_80X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/5db206d8-6b42-47cd-8f35-9e7989b91966</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GELEIDEBAND_40_120X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/a6b5f500-870b-482a-978b-a587dc2b94f7</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_70_200X150-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/290a708d-a130-4c1c-984a-f54f6c4166ea</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_50_200X150-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/e44dc560-f87a-42d2-832f-51ec8e61eea4</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GELEIDEBAND_50_200X150-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/ca4f1808-4173-4fe4-843f-44d1b74f4a84</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GELEIDEBAND_100_200X270-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/c5335ab2-d61f-4bfd-97d2-aba21f7ffac6</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GELEIDEBAND_70_200X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/6849163b-2244-4d97-94d4-d1edccdbe93a</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GELEIDEBAND_100_300X200-D</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/ea820bed-94e9-42ec-b4f2-265a17d542f0</t>
@@ -1684,120 +1774,30 @@
     <t>SVH-KANTOPSLUITING_GELEIDEBAND_190_200X160-D</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/112ac75e-483c-450d-8281-f90079604e41</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_40_120X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/ea609988-2377-4765-bd47-657e047e1ab0</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_GELEIDEBAND_100_250X170-D</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/7446bc4e-9b81-4a41-bc44-332302be0ac8</t>
   </si>
   <si>
     <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_60_120X200-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/5db206d8-6b42-47cd-8f35-9e7989b91966</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GELEIDEBAND_40_120X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/4cc8d227-3458-4fc1-9ab0-d3b3148260ac</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GELEIDEBAND_60_120X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/0b0f01d0-69cf-420d-8ab9-d72d7a9fada4</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_70_200X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/e82b950b-3624-4800-8b55-9af33768b8f0</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GELEIDEBAND_70_200X150-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/9c9c6c2c-bb8b-4a9c-8f5c-48c78604bee6</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GELEIDEBAND</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/7c9495fb-4f95-4a06-ace1-3db2fc53d01f</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_30_80X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/6849163b-2244-4d97-94d4-d1edccdbe93a</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GELEIDEBAND_100_300X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/ca4f1808-4173-4fe4-843f-44d1b74f4a84</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GELEIDEBAND_100_200X270-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/e0577bed-38af-47c2-b194-97f5cd972cdd</t>
   </si>
   <si>
     <t>SVH-KANTOPSLUITING_GELEIDEBAND_50_200X200-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1fe3fca5-0904-44b3-a371-039f8bf8de1a</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_100_200X270-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/a6b5f500-870b-482a-978b-a587dc2b94f7</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_70_200X150-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/290a708d-a130-4c1c-984a-f54f6c4166ea</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_50_200X150-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/026e0bb0-ab52-4cdc-971b-97200dbec04f</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_100_300X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/39eadf68-5aa6-4038-8ddc-ca4b6ad7f23e</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GELEIDEBAND_30_80X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/ea609988-2377-4765-bd47-657e047e1ab0</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GELEIDEBAND_100_250X170-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/e44dc560-f87a-42d2-832f-51ec8e61eea4</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GELEIDEBAND_50_200X150-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/112ac75e-483c-450d-8281-f90079604e41</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_GELEIDEBAND_40_120X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/c5335ab2-d61f-4bfd-97d2-aba21f7ffac6</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_GELEIDEBAND_70_200X200-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/10b7f712-5e2e-4814-9370-c70a08e79026</t>
   </si>
   <si>
@@ -1852,78 +1852,78 @@
     <t>SVH-KANTOPSLUITING_PWSBAND_250 130X250-D</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/4126cafa-1973-42b9-9a51-2bf68f650ae0</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_PWS</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d22be285-6970-4936-a87a-cff545cb4f8b</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_PWSBAND_250 130X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/e8029596-1096-4a74-a956-f3b7e0b5d896</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_PWSBAND_250 130X200-D</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/ea0ccd0d-ea27-4fd0-85e9-262e53b97bc5</t>
   </si>
   <si>
     <t>B-SVH-KANTOPSLUITING_PWSBAND_250 130X250-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d22be285-6970-4936-a87a-cff545cb4f8b</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_PWSBAND_250 130X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/e8029596-1096-4a74-a956-f3b7e0b5d896</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_PWSBAND_250 130X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/4126cafa-1973-42b9-9a51-2bf68f650ae0</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_PWS</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/54ce0ed3-3606-41eb-8935-e46e80299b34</t>
   </si>
   <si>
     <t>KANTOPSLUITING_STOOTBAND</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0f08e6c7-8998-4ff7-969c-3d0b92c1da46</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_STOOTBAND_200X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/89c1caec-d8e5-4e80-bfe6-42f0bb4eafc0</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_STOOTBAND_250X250-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/40d943e9-72b3-41b1-93ed-df5069597340</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_STOOTBAND_150X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/f6c6ce43-603f-4e0e-8dd1-42f396166653</t>
+  </si>
+  <si>
+    <t>SVH-KANTOPSLUITING_STOOTBAND_200X200-D</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/68396839-fd41-4fb8-9a2e-e5a7d67eb016</t>
+  </si>
+  <si>
+    <t>B-SVH-KANTOPSLUITING_STOOTBAND_150X200-D</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/3c83923e-b8a7-4a86-8ea0-bfa1484745fb</t>
   </si>
   <si>
     <t>SVH-KANTOPSLUITING_STOOTBAND</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/68396839-fd41-4fb8-9a2e-e5a7d67eb016</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_STOOTBAND_150X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/0f08e6c7-8998-4ff7-969c-3d0b92c1da46</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_STOOTBAND_200X200-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/6df765f3-c240-4545-93dc-cdd77bda9f28</t>
   </si>
   <si>
     <t>SVH-KANTOPSLUITING_STOOTBAND_250X250-D</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/40d943e9-72b3-41b1-93ed-df5069597340</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_STOOTBAND_150X200-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/89c1caec-d8e5-4e80-bfe6-42f0bb4eafc0</t>
-  </si>
-  <si>
-    <t>B-SVH-KANTOPSLUITING_STOOTBAND_250X250-D</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/f6c6ce43-603f-4e0e-8dd1-42f396166653</t>
-  </si>
-  <si>
-    <t>SVH-KANTOPSLUITING_STOOTBAND_200X200-D</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/dfbe9399-1830-41df-ac7c-337be9768eac</t>
   </si>
   <si>
@@ -3259,6 +3259,30 @@
     <t>255,255,153</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/92ab5fd3-f93a-4317-ba18-16bc0932b0cd</t>
+  </si>
+  <si>
+    <t>MOLGOOT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/4133b10a-128a-429e-a9e1-c6b6cca65cdd</t>
+  </si>
+  <si>
+    <t>VH-MOLGOOT-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/04616ae7-dc0e-451b-a1e9-9cf044e50e51</t>
+  </si>
+  <si>
+    <t>SCHIJNGOOT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0da7bdb8-ba08-44b5-b2be-adb435976fd7</t>
+  </si>
+  <si>
+    <t>VH-SCHIJNGOOT-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/33c3cb94-b43b-4fe7-a6a0-629544b768a5</t>
   </si>
   <si>
@@ -3271,12 +3295,66 @@
     <t>SVH-ANTIPARKEERELEMENT</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/977cd5ae-ba82-4bbd-a29b-31471bd49505</t>
+  </si>
+  <si>
+    <t>MOLGOOT_BSS</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/cc91b0eb-c69d-4146-a970-7a63eccfcafb</t>
+  </si>
+  <si>
+    <t>MOLGOOT_STRAATBAKSTEEN</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/82999530-d666-46d6-917d-1dfa31c7b8b9</t>
+  </si>
+  <si>
+    <t>SCHIJNGOOT_BSS</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/21fdaf3d-9bd8-4e1f-828c-7e6bf07dc137</t>
+  </si>
+  <si>
+    <t>SCHIJNGOOT_STRAATBAKSTEEN</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/3408821f-2857-466e-b17f-18f86b100027</t>
   </si>
   <si>
     <t>OPENVERHARDING_BETONSTRAATSTEEN-OP DE KOP</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/3fc25150-88c1-4098-8cb1-061b1e37472a</t>
+  </si>
+  <si>
+    <t>MOLGOOT_BSS_ACHTERKANT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1e14237a-3991-40e2-a61f-eafa87fab236</t>
+  </si>
+  <si>
+    <t>MOLGOOT_BSS_VOORKANT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/55923a6d-b9a6-49df-a6ba-0169ada38796</t>
+  </si>
+  <si>
+    <t>MOLGOOT_STRAATBAKSTEEN_ACHTERKANT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/398076a4-556f-42d8-ab74-5b2aa2a077d7</t>
+  </si>
+  <si>
+    <t>SCHIJNGOOT_BSS_ACHTERKANT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/6b97fe5a-f40a-469b-9d8a-6a4d1223d6ed</t>
+  </si>
+  <si>
+    <t>SCHIJNGOOT_STRAATBAKSTEEN_ACHTERKANT</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/8e9ee141-6380-44a4-80d4-010f8c32891f</t>
   </si>
   <si>
@@ -3403,82 +3481,16 @@
     <t>DREMPEL_STRAATBAKSTEEN</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/92ab5fd3-f93a-4317-ba18-16bc0932b0cd</t>
-  </si>
-  <si>
-    <t>MOLGOOT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/04616ae7-dc0e-451b-a1e9-9cf044e50e51</t>
-  </si>
-  <si>
-    <t>SCHIJNGOOT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/977cd5ae-ba82-4bbd-a29b-31471bd49505</t>
-  </si>
-  <si>
-    <t>MOLGOOT_BSS</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/cc91b0eb-c69d-4146-a970-7a63eccfcafb</t>
-  </si>
-  <si>
-    <t>MOLGOOT_STRAATBAKSTEEN</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/82999530-d666-46d6-917d-1dfa31c7b8b9</t>
-  </si>
-  <si>
-    <t>SCHIJNGOOT_BSS</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/21fdaf3d-9bd8-4e1f-828c-7e6bf07dc137</t>
-  </si>
-  <si>
-    <t>SCHIJNGOOT_STRAATBAKSTEEN</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/3fc25150-88c1-4098-8cb1-061b1e37472a</t>
-  </si>
-  <si>
-    <t>MOLGOOT_BSS_ACHTERKANT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1e14237a-3991-40e2-a61f-eafa87fab236</t>
-  </si>
-  <si>
-    <t>MOLGOOT_BSS_VOORKANT</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/e19d9d0e-5a5b-4ce5-92c7-eef9de288b5a</t>
   </si>
   <si>
     <t>MOLGOOT_STRAATBAKSTEEN_VOORKANT</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/55923a6d-b9a6-49df-a6ba-0169ada38796</t>
-  </si>
-  <si>
-    <t>MOLGOOT_STRAATBAKSTEEN_ACHTERKANT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/398076a4-556f-42d8-ab74-5b2aa2a077d7</t>
-  </si>
-  <si>
-    <t>SCHIJNGOOT_BSS_ACHTERKANT</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/f01972fa-53fb-4c89-908a-cd7650c7be01</t>
   </si>
   <si>
     <t>SCHIJNGOOT_BSS_VOORKANT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/6b97fe5a-f40a-469b-9d8a-6a4d1223d6ed</t>
-  </si>
-  <si>
-    <t>SCHIJNGOOT_STRAATBAKSTEEN_ACHTERKANT</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/998af7fb-4267-44d5-90f4-ba8c038125aa</t>
@@ -4344,11 +4356,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9474EC47-30D3-4C5A-B630-34E0A9E1D36B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21092654-BFD8-4543-8682-07498652AD43}">
   <dimension ref="A1:BS406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J346" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="A356" sqref="A356:XFD356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4573,7 +4585,7 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -4582,7 +4594,7 @@
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="J2" t="s">
         <v>78</v>
@@ -4753,10 +4765,10 @@
         <v>90</v>
       </c>
       <c r="BO2" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="BP2" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
@@ -5543,7 +5555,7 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1124</v>
+        <v>1150</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -5552,7 +5564,7 @@
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>1125</v>
+        <v>1151</v>
       </c>
       <c r="J7" t="s">
         <v>78</v>
@@ -32313,7 +32325,7 @@
     </row>
     <row r="141" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>1104</v>
+        <v>1130</v>
       </c>
       <c r="B141" t="s">
         <v>72</v>
@@ -32322,7 +32334,7 @@
         <v>73</v>
       </c>
       <c r="E141" t="s">
-        <v>1105</v>
+        <v>1131</v>
       </c>
       <c r="H141" t="s">
         <v>76</v>
@@ -32695,7 +32707,7 @@
     </row>
     <row r="143" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>1110</v>
+        <v>1136</v>
       </c>
       <c r="B143" t="s">
         <v>72</v>
@@ -32704,7 +32716,7 @@
         <v>73</v>
       </c>
       <c r="E143" t="s">
-        <v>1111</v>
+        <v>1137</v>
       </c>
       <c r="H143" t="s">
         <v>76</v>
@@ -33077,7 +33089,7 @@
     </row>
     <row r="145" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>1114</v>
+        <v>1140</v>
       </c>
       <c r="B145" t="s">
         <v>72</v>
@@ -33086,7 +33098,7 @@
         <v>73</v>
       </c>
       <c r="E145" t="s">
-        <v>1115</v>
+        <v>1141</v>
       </c>
       <c r="H145" t="s">
         <v>76</v>
@@ -33459,7 +33471,7 @@
     </row>
     <row r="147" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>1102</v>
+        <v>1128</v>
       </c>
       <c r="B147" t="s">
         <v>72</v>
@@ -33468,7 +33480,7 @@
         <v>73</v>
       </c>
       <c r="E147" t="s">
-        <v>1103</v>
+        <v>1129</v>
       </c>
       <c r="H147" t="s">
         <v>76</v>
@@ -33841,7 +33853,7 @@
     </row>
     <row r="149" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>1108</v>
+        <v>1134</v>
       </c>
       <c r="B149" t="s">
         <v>72</v>
@@ -33850,7 +33862,7 @@
         <v>73</v>
       </c>
       <c r="E149" t="s">
-        <v>1109</v>
+        <v>1135</v>
       </c>
       <c r="H149" t="s">
         <v>76</v>
@@ -34223,7 +34235,7 @@
     </row>
     <row r="151" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>1112</v>
+        <v>1138</v>
       </c>
       <c r="B151" t="s">
         <v>72</v>
@@ -34232,7 +34244,7 @@
         <v>73</v>
       </c>
       <c r="E151" t="s">
-        <v>1113</v>
+        <v>1139</v>
       </c>
       <c r="H151" t="s">
         <v>76</v>
@@ -34605,7 +34617,7 @@
     </row>
     <row r="153" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>1106</v>
+        <v>1132</v>
       </c>
       <c r="B153" t="s">
         <v>72</v>
@@ -34614,7 +34626,7 @@
         <v>73</v>
       </c>
       <c r="E153" t="s">
-        <v>1107</v>
+        <v>1133</v>
       </c>
       <c r="H153" t="s">
         <v>76</v>
@@ -36161,10 +36173,10 @@
         <v>544</v>
       </c>
       <c r="BO160" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="BP160" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="161" spans="1:68" x14ac:dyDescent="0.35">
@@ -36364,10 +36376,10 @@
         <v>544</v>
       </c>
       <c r="BO161" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="BP161" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="1:68" x14ac:dyDescent="0.35">
@@ -36567,10 +36579,10 @@
         <v>544</v>
       </c>
       <c r="BO162" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="BP162" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
     </row>
     <row r="163" spans="1:68" x14ac:dyDescent="0.35">
@@ -36770,10 +36782,10 @@
         <v>544</v>
       </c>
       <c r="BO163" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="BP163" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
     </row>
     <row r="164" spans="1:68" x14ac:dyDescent="0.35">
@@ -36973,10 +36985,10 @@
         <v>544</v>
       </c>
       <c r="BO164" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="BP164" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="165" spans="1:68" x14ac:dyDescent="0.35">
@@ -37379,10 +37391,10 @@
         <v>544</v>
       </c>
       <c r="BO166" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="BP166" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
     </row>
     <row r="167" spans="1:68" x14ac:dyDescent="0.35">
@@ -37582,10 +37594,10 @@
         <v>544</v>
       </c>
       <c r="BO167" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="BP167" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
     </row>
     <row r="168" spans="1:68" x14ac:dyDescent="0.35">
@@ -37785,10 +37797,10 @@
         <v>544</v>
       </c>
       <c r="BO168" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="BP168" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
     </row>
     <row r="169" spans="1:68" x14ac:dyDescent="0.35">
@@ -37988,10 +38000,10 @@
         <v>544</v>
       </c>
       <c r="BO169" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="BP169" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" spans="1:68" x14ac:dyDescent="0.35">
@@ -38191,10 +38203,10 @@
         <v>544</v>
       </c>
       <c r="BO170" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="BP170" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171" spans="1:68" x14ac:dyDescent="0.35">
@@ -38394,10 +38406,10 @@
         <v>544</v>
       </c>
       <c r="BO171" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="BP171" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
     </row>
     <row r="172" spans="1:68" x14ac:dyDescent="0.35">
@@ -38597,10 +38609,10 @@
         <v>544</v>
       </c>
       <c r="BO172" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="BP172" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
     </row>
     <row r="173" spans="1:68" x14ac:dyDescent="0.35">
@@ -38800,10 +38812,10 @@
         <v>544</v>
       </c>
       <c r="BO173" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="BP173" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
     </row>
     <row r="174" spans="1:68" x14ac:dyDescent="0.35">
@@ -39003,10 +39015,10 @@
         <v>544</v>
       </c>
       <c r="BO174" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="BP174" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="175" spans="1:68" x14ac:dyDescent="0.35">
@@ -39206,10 +39218,10 @@
         <v>544</v>
       </c>
       <c r="BO175" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="BP175" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
     </row>
     <row r="176" spans="1:68" x14ac:dyDescent="0.35">
@@ -39409,10 +39421,10 @@
         <v>544</v>
       </c>
       <c r="BO176" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="BP176" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="177" spans="1:68" x14ac:dyDescent="0.35">
@@ -39612,10 +39624,10 @@
         <v>544</v>
       </c>
       <c r="BO177" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="BP177" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
     </row>
     <row r="178" spans="1:68" x14ac:dyDescent="0.35">
@@ -39815,10 +39827,10 @@
         <v>544</v>
       </c>
       <c r="BO178" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="BP178" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
     </row>
     <row r="179" spans="1:68" x14ac:dyDescent="0.35">
@@ -40018,10 +40030,10 @@
         <v>544</v>
       </c>
       <c r="BO179" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="BP179" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:68" x14ac:dyDescent="0.35">
@@ -40221,10 +40233,10 @@
         <v>544</v>
       </c>
       <c r="BO180" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="BP180" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="181" spans="1:68" x14ac:dyDescent="0.35">
@@ -40424,10 +40436,10 @@
         <v>544</v>
       </c>
       <c r="BO181" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="BP181" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="1:68" x14ac:dyDescent="0.35">
@@ -49638,7 +49650,7 @@
     </row>
     <row r="228" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>1092</v>
+        <v>1118</v>
       </c>
       <c r="B228" t="s">
         <v>72</v>
@@ -49647,7 +49659,7 @@
         <v>73</v>
       </c>
       <c r="E228" t="s">
-        <v>1093</v>
+        <v>1119</v>
       </c>
       <c r="H228" t="s">
         <v>76</v>
@@ -50020,7 +50032,7 @@
     </row>
     <row r="230" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>1098</v>
+        <v>1124</v>
       </c>
       <c r="B230" t="s">
         <v>72</v>
@@ -50029,7 +50041,7 @@
         <v>73</v>
       </c>
       <c r="E230" t="s">
-        <v>1099</v>
+        <v>1125</v>
       </c>
       <c r="H230" t="s">
         <v>76</v>
@@ -50402,7 +50414,7 @@
     </row>
     <row r="232" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>1088</v>
+        <v>1114</v>
       </c>
       <c r="B232" t="s">
         <v>72</v>
@@ -50411,7 +50423,7 @@
         <v>73</v>
       </c>
       <c r="E232" t="s">
-        <v>1089</v>
+        <v>1115</v>
       </c>
       <c r="H232" t="s">
         <v>76</v>
@@ -50784,7 +50796,7 @@
     </row>
     <row r="234" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>1084</v>
+        <v>1110</v>
       </c>
       <c r="B234" t="s">
         <v>72</v>
@@ -50793,7 +50805,7 @@
         <v>73</v>
       </c>
       <c r="E234" t="s">
-        <v>1085</v>
+        <v>1111</v>
       </c>
       <c r="H234" t="s">
         <v>76</v>
@@ -51166,7 +51178,7 @@
     </row>
     <row r="236" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>1094</v>
+        <v>1120</v>
       </c>
       <c r="B236" t="s">
         <v>72</v>
@@ -51175,7 +51187,7 @@
         <v>73</v>
       </c>
       <c r="E236" t="s">
-        <v>1095</v>
+        <v>1121</v>
       </c>
       <c r="H236" t="s">
         <v>76</v>
@@ -51548,7 +51560,7 @@
     </row>
     <row r="238" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>1090</v>
+        <v>1116</v>
       </c>
       <c r="B238" t="s">
         <v>72</v>
@@ -51557,7 +51569,7 @@
         <v>73</v>
       </c>
       <c r="E238" t="s">
-        <v>1091</v>
+        <v>1117</v>
       </c>
       <c r="H238" t="s">
         <v>76</v>
@@ -51930,7 +51942,7 @@
     </row>
     <row r="240" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>1100</v>
+        <v>1126</v>
       </c>
       <c r="B240" t="s">
         <v>72</v>
@@ -51939,7 +51951,7 @@
         <v>73</v>
       </c>
       <c r="E240" t="s">
-        <v>1101</v>
+        <v>1127</v>
       </c>
       <c r="H240" t="s">
         <v>76</v>
@@ -52312,7 +52324,7 @@
     </row>
     <row r="242" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1096</v>
+        <v>1122</v>
       </c>
       <c r="B242" t="s">
         <v>72</v>
@@ -52321,7 +52333,7 @@
         <v>73</v>
       </c>
       <c r="E242" t="s">
-        <v>1097</v>
+        <v>1123</v>
       </c>
       <c r="H242" t="s">
         <v>76</v>
@@ -52694,7 +52706,7 @@
     </row>
     <row r="244" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1086</v>
+        <v>1112</v>
       </c>
       <c r="B244" t="s">
         <v>72</v>
@@ -52703,7 +52715,7 @@
         <v>73</v>
       </c>
       <c r="E244" t="s">
-        <v>1087</v>
+        <v>1113</v>
       </c>
       <c r="H244" t="s">
         <v>76</v>
@@ -56046,7 +56058,7 @@
     </row>
     <row r="261" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1116</v>
+        <v>1142</v>
       </c>
       <c r="B261" t="s">
         <v>72</v>
@@ -56055,7 +56067,7 @@
         <v>73</v>
       </c>
       <c r="E261" t="s">
-        <v>1117</v>
+        <v>1143</v>
       </c>
       <c r="H261" t="s">
         <v>76</v>
@@ -73840,7 +73852,7 @@
     </row>
     <row r="350" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>1126</v>
+        <v>1078</v>
       </c>
       <c r="B350" t="s">
         <v>72</v>
@@ -73849,18 +73861,186 @@
         <v>73</v>
       </c>
       <c r="E350" t="s">
-        <v>1127</v>
+        <v>1079</v>
       </c>
       <c r="H350" t="s">
         <v>76</v>
       </c>
       <c r="I350" t="s">
         <v>77</v>
+      </c>
+      <c r="J350" t="s">
+        <v>78</v>
+      </c>
+      <c r="K350" t="s">
+        <v>79</v>
+      </c>
+      <c r="L350" t="s">
+        <v>695</v>
+      </c>
+      <c r="M350">
+        <v>40</v>
+      </c>
+      <c r="N350" t="s">
+        <v>696</v>
+      </c>
+      <c r="O350">
+        <v>42</v>
+      </c>
+      <c r="P350" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q350">
+        <v>40</v>
+      </c>
+      <c r="R350" t="s">
+        <v>695</v>
+      </c>
+      <c r="S350">
+        <v>40</v>
+      </c>
+      <c r="T350" t="s">
+        <v>243</v>
+      </c>
+      <c r="U350">
+        <v>253</v>
+      </c>
+      <c r="V350" t="s">
+        <v>1080</v>
+      </c>
+      <c r="W350" t="s">
+        <v>1081</v>
+      </c>
+      <c r="X350" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y350" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z350" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA350">
+        <v>40</v>
+      </c>
+      <c r="AB350" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC350">
+        <v>42</v>
+      </c>
+      <c r="AD350" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE350">
+        <v>40</v>
+      </c>
+      <c r="AF350" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG350">
+        <v>40</v>
+      </c>
+      <c r="AH350" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI350">
+        <v>253</v>
+      </c>
+      <c r="AJ350" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AK350" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AL350" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM350" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN350" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO350">
+        <v>40</v>
+      </c>
+      <c r="AP350" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ350">
+        <v>42</v>
+      </c>
+      <c r="AR350" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS350">
+        <v>40</v>
+      </c>
+      <c r="AT350" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU350">
+        <v>40</v>
+      </c>
+      <c r="AV350" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW350">
+        <v>253</v>
+      </c>
+      <c r="AX350" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AY350" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AZ350" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA350" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB350" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC350">
+        <v>40</v>
+      </c>
+      <c r="BD350" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE350">
+        <v>42</v>
+      </c>
+      <c r="BF350" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG350">
+        <v>40</v>
+      </c>
+      <c r="BH350" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI350">
+        <v>40</v>
+      </c>
+      <c r="BJ350" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK350">
+        <v>253</v>
+      </c>
+      <c r="BL350" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BM350" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="351" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>1130</v>
+        <v>1090</v>
       </c>
       <c r="B351" t="s">
         <v>72</v>
@@ -73869,18 +74049,186 @@
         <v>73</v>
       </c>
       <c r="E351" t="s">
-        <v>1131</v>
+        <v>1091</v>
       </c>
       <c r="H351" t="s">
         <v>76</v>
       </c>
       <c r="I351" t="s">
         <v>77</v>
+      </c>
+      <c r="J351" t="s">
+        <v>78</v>
+      </c>
+      <c r="K351" t="s">
+        <v>79</v>
+      </c>
+      <c r="L351" t="s">
+        <v>695</v>
+      </c>
+      <c r="M351">
+        <v>40</v>
+      </c>
+      <c r="N351" t="s">
+        <v>696</v>
+      </c>
+      <c r="O351">
+        <v>42</v>
+      </c>
+      <c r="P351" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q351">
+        <v>40</v>
+      </c>
+      <c r="R351" t="s">
+        <v>695</v>
+      </c>
+      <c r="S351">
+        <v>40</v>
+      </c>
+      <c r="T351" t="s">
+        <v>243</v>
+      </c>
+      <c r="U351">
+        <v>253</v>
+      </c>
+      <c r="V351" t="s">
+        <v>1080</v>
+      </c>
+      <c r="W351" t="s">
+        <v>1081</v>
+      </c>
+      <c r="X351" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y351" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z351" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA351">
+        <v>40</v>
+      </c>
+      <c r="AB351" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC351">
+        <v>42</v>
+      </c>
+      <c r="AD351" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE351">
+        <v>40</v>
+      </c>
+      <c r="AF351" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG351">
+        <v>40</v>
+      </c>
+      <c r="AH351" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI351">
+        <v>253</v>
+      </c>
+      <c r="AJ351" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AK351" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AL351" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM351" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN351" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO351">
+        <v>40</v>
+      </c>
+      <c r="AP351" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ351">
+        <v>42</v>
+      </c>
+      <c r="AR351" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS351">
+        <v>40</v>
+      </c>
+      <c r="AT351" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU351">
+        <v>40</v>
+      </c>
+      <c r="AV351" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW351">
+        <v>253</v>
+      </c>
+      <c r="AX351" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AY351" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AZ351" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA351" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB351" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC351">
+        <v>40</v>
+      </c>
+      <c r="BD351" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE351">
+        <v>42</v>
+      </c>
+      <c r="BF351" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG351">
+        <v>40</v>
+      </c>
+      <c r="BH351" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI351">
+        <v>40</v>
+      </c>
+      <c r="BJ351" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK351">
+        <v>253</v>
+      </c>
+      <c r="BL351" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BM351" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="352" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>1138</v>
+        <v>1100</v>
       </c>
       <c r="B352" t="s">
         <v>72</v>
@@ -73889,18 +74237,186 @@
         <v>73</v>
       </c>
       <c r="E352" t="s">
-        <v>1139</v>
+        <v>1101</v>
       </c>
       <c r="H352" t="s">
         <v>76</v>
       </c>
       <c r="I352" t="s">
         <v>77</v>
+      </c>
+      <c r="J352" t="s">
+        <v>78</v>
+      </c>
+      <c r="K352" t="s">
+        <v>79</v>
+      </c>
+      <c r="L352" t="s">
+        <v>695</v>
+      </c>
+      <c r="M352">
+        <v>40</v>
+      </c>
+      <c r="N352" t="s">
+        <v>696</v>
+      </c>
+      <c r="O352">
+        <v>42</v>
+      </c>
+      <c r="P352" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q352">
+        <v>40</v>
+      </c>
+      <c r="R352" t="s">
+        <v>695</v>
+      </c>
+      <c r="S352">
+        <v>40</v>
+      </c>
+      <c r="T352" t="s">
+        <v>243</v>
+      </c>
+      <c r="U352">
+        <v>253</v>
+      </c>
+      <c r="V352" t="s">
+        <v>1080</v>
+      </c>
+      <c r="W352" t="s">
+        <v>1081</v>
+      </c>
+      <c r="X352" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y352" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z352" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA352">
+        <v>40</v>
+      </c>
+      <c r="AB352" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC352">
+        <v>42</v>
+      </c>
+      <c r="AD352" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE352">
+        <v>40</v>
+      </c>
+      <c r="AF352" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG352">
+        <v>40</v>
+      </c>
+      <c r="AH352" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI352">
+        <v>253</v>
+      </c>
+      <c r="AJ352" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AK352" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AL352" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM352" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN352" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO352">
+        <v>40</v>
+      </c>
+      <c r="AP352" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ352">
+        <v>42</v>
+      </c>
+      <c r="AR352" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS352">
+        <v>40</v>
+      </c>
+      <c r="AT352" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU352">
+        <v>40</v>
+      </c>
+      <c r="AV352" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW352">
+        <v>253</v>
+      </c>
+      <c r="AX352" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AY352" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AZ352" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA352" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB352" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC352">
+        <v>40</v>
+      </c>
+      <c r="BD352" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE352">
+        <v>42</v>
+      </c>
+      <c r="BF352" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG352">
+        <v>40</v>
+      </c>
+      <c r="BH352" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI352">
+        <v>40</v>
+      </c>
+      <c r="BJ352" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK352">
+        <v>253</v>
+      </c>
+      <c r="BL352" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BM352" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="353" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>1140</v>
+        <v>1102</v>
       </c>
       <c r="B353" t="s">
         <v>72</v>
@@ -73909,18 +74425,186 @@
         <v>73</v>
       </c>
       <c r="E353" t="s">
-        <v>1141</v>
+        <v>1103</v>
       </c>
       <c r="H353" t="s">
         <v>76</v>
       </c>
       <c r="I353" t="s">
         <v>77</v>
+      </c>
+      <c r="J353" t="s">
+        <v>78</v>
+      </c>
+      <c r="K353" t="s">
+        <v>79</v>
+      </c>
+      <c r="L353" t="s">
+        <v>695</v>
+      </c>
+      <c r="M353">
+        <v>40</v>
+      </c>
+      <c r="N353" t="s">
+        <v>696</v>
+      </c>
+      <c r="O353">
+        <v>42</v>
+      </c>
+      <c r="P353" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q353">
+        <v>40</v>
+      </c>
+      <c r="R353" t="s">
+        <v>695</v>
+      </c>
+      <c r="S353">
+        <v>40</v>
+      </c>
+      <c r="T353" t="s">
+        <v>243</v>
+      </c>
+      <c r="U353">
+        <v>253</v>
+      </c>
+      <c r="V353" t="s">
+        <v>1080</v>
+      </c>
+      <c r="W353" t="s">
+        <v>1081</v>
+      </c>
+      <c r="X353" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y353" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z353" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA353">
+        <v>40</v>
+      </c>
+      <c r="AB353" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC353">
+        <v>42</v>
+      </c>
+      <c r="AD353" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE353">
+        <v>40</v>
+      </c>
+      <c r="AF353" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG353">
+        <v>40</v>
+      </c>
+      <c r="AH353" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI353">
+        <v>253</v>
+      </c>
+      <c r="AJ353" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AK353" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AL353" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM353" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN353" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO353">
+        <v>40</v>
+      </c>
+      <c r="AP353" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ353">
+        <v>42</v>
+      </c>
+      <c r="AR353" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS353">
+        <v>40</v>
+      </c>
+      <c r="AT353" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU353">
+        <v>40</v>
+      </c>
+      <c r="AV353" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW353">
+        <v>253</v>
+      </c>
+      <c r="AX353" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AY353" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AZ353" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA353" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB353" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC353">
+        <v>40</v>
+      </c>
+      <c r="BD353" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE353">
+        <v>42</v>
+      </c>
+      <c r="BF353" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG353">
+        <v>40</v>
+      </c>
+      <c r="BH353" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI353">
+        <v>40</v>
+      </c>
+      <c r="BJ353" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK353">
+        <v>253</v>
+      </c>
+      <c r="BL353" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BM353" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="354" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>1132</v>
+        <v>1092</v>
       </c>
       <c r="B354" t="s">
         <v>72</v>
@@ -73929,18 +74613,186 @@
         <v>73</v>
       </c>
       <c r="E354" t="s">
-        <v>1133</v>
+        <v>1093</v>
       </c>
       <c r="H354" t="s">
         <v>76</v>
       </c>
       <c r="I354" t="s">
         <v>77</v>
+      </c>
+      <c r="J354" t="s">
+        <v>78</v>
+      </c>
+      <c r="K354" t="s">
+        <v>79</v>
+      </c>
+      <c r="L354" t="s">
+        <v>695</v>
+      </c>
+      <c r="M354">
+        <v>40</v>
+      </c>
+      <c r="N354" t="s">
+        <v>696</v>
+      </c>
+      <c r="O354">
+        <v>42</v>
+      </c>
+      <c r="P354" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q354">
+        <v>40</v>
+      </c>
+      <c r="R354" t="s">
+        <v>695</v>
+      </c>
+      <c r="S354">
+        <v>40</v>
+      </c>
+      <c r="T354" t="s">
+        <v>243</v>
+      </c>
+      <c r="U354">
+        <v>253</v>
+      </c>
+      <c r="V354" t="s">
+        <v>1080</v>
+      </c>
+      <c r="W354" t="s">
+        <v>1081</v>
+      </c>
+      <c r="X354" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y354" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z354" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA354">
+        <v>40</v>
+      </c>
+      <c r="AB354" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC354">
+        <v>42</v>
+      </c>
+      <c r="AD354" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE354">
+        <v>40</v>
+      </c>
+      <c r="AF354" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG354">
+        <v>40</v>
+      </c>
+      <c r="AH354" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI354">
+        <v>253</v>
+      </c>
+      <c r="AJ354" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AK354" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AL354" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM354" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN354" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO354">
+        <v>40</v>
+      </c>
+      <c r="AP354" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ354">
+        <v>42</v>
+      </c>
+      <c r="AR354" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS354">
+        <v>40</v>
+      </c>
+      <c r="AT354" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU354">
+        <v>40</v>
+      </c>
+      <c r="AV354" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW354">
+        <v>253</v>
+      </c>
+      <c r="AX354" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AY354" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AZ354" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA354" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB354" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC354">
+        <v>40</v>
+      </c>
+      <c r="BD354" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE354">
+        <v>42</v>
+      </c>
+      <c r="BF354" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG354">
+        <v>40</v>
+      </c>
+      <c r="BH354" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI354">
+        <v>40</v>
+      </c>
+      <c r="BJ354" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK354">
+        <v>253</v>
+      </c>
+      <c r="BL354" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BM354" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="355" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>1144</v>
+        <v>1104</v>
       </c>
       <c r="B355" t="s">
         <v>72</v>
@@ -73949,18 +74801,186 @@
         <v>73</v>
       </c>
       <c r="E355" t="s">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="H355" t="s">
         <v>76</v>
       </c>
       <c r="I355" t="s">
         <v>77</v>
+      </c>
+      <c r="J355" t="s">
+        <v>78</v>
+      </c>
+      <c r="K355" t="s">
+        <v>79</v>
+      </c>
+      <c r="L355" t="s">
+        <v>695</v>
+      </c>
+      <c r="M355">
+        <v>40</v>
+      </c>
+      <c r="N355" t="s">
+        <v>696</v>
+      </c>
+      <c r="O355">
+        <v>42</v>
+      </c>
+      <c r="P355" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q355">
+        <v>40</v>
+      </c>
+      <c r="R355" t="s">
+        <v>695</v>
+      </c>
+      <c r="S355">
+        <v>40</v>
+      </c>
+      <c r="T355" t="s">
+        <v>243</v>
+      </c>
+      <c r="U355">
+        <v>253</v>
+      </c>
+      <c r="V355" t="s">
+        <v>1080</v>
+      </c>
+      <c r="W355" t="s">
+        <v>1081</v>
+      </c>
+      <c r="X355" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y355" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z355" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA355">
+        <v>40</v>
+      </c>
+      <c r="AB355" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC355">
+        <v>42</v>
+      </c>
+      <c r="AD355" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE355">
+        <v>40</v>
+      </c>
+      <c r="AF355" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG355">
+        <v>40</v>
+      </c>
+      <c r="AH355" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI355">
+        <v>253</v>
+      </c>
+      <c r="AJ355" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AK355" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AL355" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM355" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN355" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO355">
+        <v>40</v>
+      </c>
+      <c r="AP355" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ355">
+        <v>42</v>
+      </c>
+      <c r="AR355" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS355">
+        <v>40</v>
+      </c>
+      <c r="AT355" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU355">
+        <v>40</v>
+      </c>
+      <c r="AV355" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW355">
+        <v>253</v>
+      </c>
+      <c r="AX355" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AY355" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AZ355" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA355" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB355" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC355">
+        <v>40</v>
+      </c>
+      <c r="BD355" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE355">
+        <v>42</v>
+      </c>
+      <c r="BF355" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG355">
+        <v>40</v>
+      </c>
+      <c r="BH355" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI355">
+        <v>40</v>
+      </c>
+      <c r="BJ355" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK355">
+        <v>253</v>
+      </c>
+      <c r="BL355" t="s">
+        <v>1080</v>
+      </c>
+      <c r="BM355" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="356" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="B356" t="s">
         <v>72</v>
@@ -73969,7 +74989,7 @@
         <v>73</v>
       </c>
       <c r="E356" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="H356" t="s">
         <v>76</v>
@@ -73992,7 +75012,7 @@
         <v>2936</v>
       </c>
       <c r="E357" t="s">
-        <v>1119</v>
+        <v>1145</v>
       </c>
       <c r="H357" t="s">
         <v>76</v>
@@ -74974,7 +75994,7 @@
         <v>2519</v>
       </c>
       <c r="E362" t="s">
-        <v>1118</v>
+        <v>1144</v>
       </c>
       <c r="H362" t="s">
         <v>76</v>
@@ -77550,7 +78570,7 @@
     </row>
     <row r="375" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
       <c r="B375" t="s">
         <v>72</v>
@@ -77559,7 +78579,7 @@
         <v>73</v>
       </c>
       <c r="E375" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="F375" t="s">
         <v>266</v>
@@ -81210,7 +82230,7 @@
     </row>
     <row r="393" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>1128</v>
+        <v>1082</v>
       </c>
       <c r="B393" t="s">
         <v>72</v>
@@ -81219,18 +82239,186 @@
         <v>73</v>
       </c>
       <c r="E393" t="s">
-        <v>1129</v>
+        <v>1083</v>
       </c>
       <c r="H393" t="s">
         <v>76</v>
       </c>
       <c r="I393" t="s">
         <v>77</v>
+      </c>
+      <c r="J393" t="s">
+        <v>78</v>
+      </c>
+      <c r="K393" t="s">
+        <v>79</v>
+      </c>
+      <c r="L393" t="s">
+        <v>695</v>
+      </c>
+      <c r="M393">
+        <v>40</v>
+      </c>
+      <c r="N393" t="s">
+        <v>696</v>
+      </c>
+      <c r="O393">
+        <v>42</v>
+      </c>
+      <c r="P393" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q393">
+        <v>40</v>
+      </c>
+      <c r="R393" t="s">
+        <v>695</v>
+      </c>
+      <c r="S393">
+        <v>40</v>
+      </c>
+      <c r="T393" t="s">
+        <v>243</v>
+      </c>
+      <c r="U393">
+        <v>253</v>
+      </c>
+      <c r="V393" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W393" t="s">
+        <v>1085</v>
+      </c>
+      <c r="X393" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y393" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z393" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA393">
+        <v>40</v>
+      </c>
+      <c r="AB393" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC393">
+        <v>42</v>
+      </c>
+      <c r="AD393" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE393">
+        <v>40</v>
+      </c>
+      <c r="AF393" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG393">
+        <v>40</v>
+      </c>
+      <c r="AH393" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI393">
+        <v>253</v>
+      </c>
+      <c r="AJ393" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AK393" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AL393" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM393" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN393" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO393">
+        <v>40</v>
+      </c>
+      <c r="AP393" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ393">
+        <v>42</v>
+      </c>
+      <c r="AR393" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS393">
+        <v>40</v>
+      </c>
+      <c r="AT393" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU393">
+        <v>40</v>
+      </c>
+      <c r="AV393" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW393">
+        <v>253</v>
+      </c>
+      <c r="AX393" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AY393" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AZ393" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA393" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB393" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC393">
+        <v>40</v>
+      </c>
+      <c r="BD393" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE393">
+        <v>42</v>
+      </c>
+      <c r="BF393" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG393">
+        <v>40</v>
+      </c>
+      <c r="BH393" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI393">
+        <v>40</v>
+      </c>
+      <c r="BJ393" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK393">
+        <v>253</v>
+      </c>
+      <c r="BL393" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BM393" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="394" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>1134</v>
+        <v>1094</v>
       </c>
       <c r="B394" t="s">
         <v>72</v>
@@ -81239,18 +82427,186 @@
         <v>73</v>
       </c>
       <c r="E394" t="s">
-        <v>1135</v>
+        <v>1095</v>
       </c>
       <c r="H394" t="s">
         <v>76</v>
       </c>
       <c r="I394" t="s">
         <v>77</v>
+      </c>
+      <c r="J394" t="s">
+        <v>78</v>
+      </c>
+      <c r="K394" t="s">
+        <v>79</v>
+      </c>
+      <c r="L394" t="s">
+        <v>695</v>
+      </c>
+      <c r="M394">
+        <v>40</v>
+      </c>
+      <c r="N394" t="s">
+        <v>696</v>
+      </c>
+      <c r="O394">
+        <v>42</v>
+      </c>
+      <c r="P394" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q394">
+        <v>40</v>
+      </c>
+      <c r="R394" t="s">
+        <v>695</v>
+      </c>
+      <c r="S394">
+        <v>40</v>
+      </c>
+      <c r="T394" t="s">
+        <v>243</v>
+      </c>
+      <c r="U394">
+        <v>253</v>
+      </c>
+      <c r="V394" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W394" t="s">
+        <v>1085</v>
+      </c>
+      <c r="X394" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y394" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z394" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA394">
+        <v>40</v>
+      </c>
+      <c r="AB394" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC394">
+        <v>42</v>
+      </c>
+      <c r="AD394" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE394">
+        <v>40</v>
+      </c>
+      <c r="AF394" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG394">
+        <v>40</v>
+      </c>
+      <c r="AH394" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI394">
+        <v>253</v>
+      </c>
+      <c r="AJ394" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AK394" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AL394" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM394" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN394" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO394">
+        <v>40</v>
+      </c>
+      <c r="AP394" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ394">
+        <v>42</v>
+      </c>
+      <c r="AR394" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS394">
+        <v>40</v>
+      </c>
+      <c r="AT394" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU394">
+        <v>40</v>
+      </c>
+      <c r="AV394" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW394">
+        <v>253</v>
+      </c>
+      <c r="AX394" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AY394" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AZ394" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA394" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB394" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC394">
+        <v>40</v>
+      </c>
+      <c r="BD394" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE394">
+        <v>42</v>
+      </c>
+      <c r="BF394" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG394">
+        <v>40</v>
+      </c>
+      <c r="BH394" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI394">
+        <v>40</v>
+      </c>
+      <c r="BJ394" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK394">
+        <v>253</v>
+      </c>
+      <c r="BL394" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BM394" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="395" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>1146</v>
+        <v>1106</v>
       </c>
       <c r="B395" t="s">
         <v>72</v>
@@ -81259,18 +82615,186 @@
         <v>73</v>
       </c>
       <c r="E395" t="s">
-        <v>1147</v>
+        <v>1107</v>
       </c>
       <c r="H395" t="s">
         <v>76</v>
       </c>
       <c r="I395" t="s">
         <v>77</v>
+      </c>
+      <c r="J395" t="s">
+        <v>78</v>
+      </c>
+      <c r="K395" t="s">
+        <v>79</v>
+      </c>
+      <c r="L395" t="s">
+        <v>695</v>
+      </c>
+      <c r="M395">
+        <v>40</v>
+      </c>
+      <c r="N395" t="s">
+        <v>696</v>
+      </c>
+      <c r="O395">
+        <v>42</v>
+      </c>
+      <c r="P395" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q395">
+        <v>40</v>
+      </c>
+      <c r="R395" t="s">
+        <v>695</v>
+      </c>
+      <c r="S395">
+        <v>40</v>
+      </c>
+      <c r="T395" t="s">
+        <v>243</v>
+      </c>
+      <c r="U395">
+        <v>253</v>
+      </c>
+      <c r="V395" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W395" t="s">
+        <v>1085</v>
+      </c>
+      <c r="X395" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y395" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z395" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA395">
+        <v>40</v>
+      </c>
+      <c r="AB395" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC395">
+        <v>42</v>
+      </c>
+      <c r="AD395" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE395">
+        <v>40</v>
+      </c>
+      <c r="AF395" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG395">
+        <v>40</v>
+      </c>
+      <c r="AH395" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI395">
+        <v>253</v>
+      </c>
+      <c r="AJ395" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AK395" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AL395" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM395" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN395" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO395">
+        <v>40</v>
+      </c>
+      <c r="AP395" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ395">
+        <v>42</v>
+      </c>
+      <c r="AR395" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS395">
+        <v>40</v>
+      </c>
+      <c r="AT395" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU395">
+        <v>40</v>
+      </c>
+      <c r="AV395" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW395">
+        <v>253</v>
+      </c>
+      <c r="AX395" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AY395" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AZ395" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA395" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB395" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC395">
+        <v>40</v>
+      </c>
+      <c r="BD395" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE395">
+        <v>42</v>
+      </c>
+      <c r="BF395" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG395">
+        <v>40</v>
+      </c>
+      <c r="BH395" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI395">
+        <v>40</v>
+      </c>
+      <c r="BJ395" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK395">
+        <v>253</v>
+      </c>
+      <c r="BL395" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BM395" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="396" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="B396" t="s">
         <v>72</v>
@@ -81279,7 +82803,7 @@
         <v>73</v>
       </c>
       <c r="E396" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="H396" t="s">
         <v>76</v>
@@ -81290,7 +82814,7 @@
     </row>
     <row r="397" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>1136</v>
+        <v>1096</v>
       </c>
       <c r="B397" t="s">
         <v>72</v>
@@ -81299,18 +82823,186 @@
         <v>73</v>
       </c>
       <c r="E397" t="s">
-        <v>1137</v>
+        <v>1097</v>
       </c>
       <c r="H397" t="s">
         <v>76</v>
       </c>
       <c r="I397" t="s">
         <v>77</v>
+      </c>
+      <c r="J397" t="s">
+        <v>78</v>
+      </c>
+      <c r="K397" t="s">
+        <v>79</v>
+      </c>
+      <c r="L397" t="s">
+        <v>695</v>
+      </c>
+      <c r="M397">
+        <v>40</v>
+      </c>
+      <c r="N397" t="s">
+        <v>696</v>
+      </c>
+      <c r="O397">
+        <v>42</v>
+      </c>
+      <c r="P397" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q397">
+        <v>40</v>
+      </c>
+      <c r="R397" t="s">
+        <v>695</v>
+      </c>
+      <c r="S397">
+        <v>40</v>
+      </c>
+      <c r="T397" t="s">
+        <v>243</v>
+      </c>
+      <c r="U397">
+        <v>253</v>
+      </c>
+      <c r="V397" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W397" t="s">
+        <v>1085</v>
+      </c>
+      <c r="X397" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y397" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z397" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA397">
+        <v>40</v>
+      </c>
+      <c r="AB397" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC397">
+        <v>42</v>
+      </c>
+      <c r="AD397" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE397">
+        <v>40</v>
+      </c>
+      <c r="AF397" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG397">
+        <v>40</v>
+      </c>
+      <c r="AH397" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI397">
+        <v>253</v>
+      </c>
+      <c r="AJ397" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AK397" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AL397" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM397" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN397" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO397">
+        <v>40</v>
+      </c>
+      <c r="AP397" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ397">
+        <v>42</v>
+      </c>
+      <c r="AR397" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS397">
+        <v>40</v>
+      </c>
+      <c r="AT397" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU397">
+        <v>40</v>
+      </c>
+      <c r="AV397" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW397">
+        <v>253</v>
+      </c>
+      <c r="AX397" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AY397" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AZ397" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA397" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB397" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC397">
+        <v>40</v>
+      </c>
+      <c r="BD397" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE397">
+        <v>42</v>
+      </c>
+      <c r="BF397" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG397">
+        <v>40</v>
+      </c>
+      <c r="BH397" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI397">
+        <v>40</v>
+      </c>
+      <c r="BJ397" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK397">
+        <v>253</v>
+      </c>
+      <c r="BL397" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BM397" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="398" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>1150</v>
+        <v>1108</v>
       </c>
       <c r="B398" t="s">
         <v>72</v>
@@ -81319,18 +83011,186 @@
         <v>73</v>
       </c>
       <c r="E398" t="s">
-        <v>1151</v>
+        <v>1109</v>
       </c>
       <c r="H398" t="s">
         <v>76</v>
       </c>
       <c r="I398" t="s">
         <v>77</v>
+      </c>
+      <c r="J398" t="s">
+        <v>78</v>
+      </c>
+      <c r="K398" t="s">
+        <v>79</v>
+      </c>
+      <c r="L398" t="s">
+        <v>695</v>
+      </c>
+      <c r="M398">
+        <v>40</v>
+      </c>
+      <c r="N398" t="s">
+        <v>696</v>
+      </c>
+      <c r="O398">
+        <v>42</v>
+      </c>
+      <c r="P398" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q398">
+        <v>40</v>
+      </c>
+      <c r="R398" t="s">
+        <v>695</v>
+      </c>
+      <c r="S398">
+        <v>40</v>
+      </c>
+      <c r="T398" t="s">
+        <v>243</v>
+      </c>
+      <c r="U398">
+        <v>253</v>
+      </c>
+      <c r="V398" t="s">
+        <v>1084</v>
+      </c>
+      <c r="W398" t="s">
+        <v>1085</v>
+      </c>
+      <c r="X398" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y398" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z398" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA398">
+        <v>40</v>
+      </c>
+      <c r="AB398" t="s">
+        <v>696</v>
+      </c>
+      <c r="AC398">
+        <v>42</v>
+      </c>
+      <c r="AD398" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE398">
+        <v>40</v>
+      </c>
+      <c r="AF398" t="s">
+        <v>695</v>
+      </c>
+      <c r="AG398">
+        <v>40</v>
+      </c>
+      <c r="AH398" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI398">
+        <v>253</v>
+      </c>
+      <c r="AJ398" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AK398" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AL398" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM398" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN398" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO398">
+        <v>40</v>
+      </c>
+      <c r="AP398" t="s">
+        <v>696</v>
+      </c>
+      <c r="AQ398">
+        <v>42</v>
+      </c>
+      <c r="AR398" t="s">
+        <v>695</v>
+      </c>
+      <c r="AS398">
+        <v>40</v>
+      </c>
+      <c r="AT398" t="s">
+        <v>695</v>
+      </c>
+      <c r="AU398">
+        <v>40</v>
+      </c>
+      <c r="AV398" t="s">
+        <v>243</v>
+      </c>
+      <c r="AW398">
+        <v>253</v>
+      </c>
+      <c r="AX398" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AY398" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AZ398" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA398" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB398" t="s">
+        <v>695</v>
+      </c>
+      <c r="BC398">
+        <v>40</v>
+      </c>
+      <c r="BD398" t="s">
+        <v>696</v>
+      </c>
+      <c r="BE398">
+        <v>42</v>
+      </c>
+      <c r="BF398" t="s">
+        <v>695</v>
+      </c>
+      <c r="BG398">
+        <v>40</v>
+      </c>
+      <c r="BH398" t="s">
+        <v>695</v>
+      </c>
+      <c r="BI398">
+        <v>40</v>
+      </c>
+      <c r="BJ398" t="s">
+        <v>243</v>
+      </c>
+      <c r="BK398">
+        <v>253</v>
+      </c>
+      <c r="BL398" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BM398" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="399" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B399" t="s">
         <v>72</v>
@@ -81339,7 +83199,7 @@
         <v>73</v>
       </c>
       <c r="E399" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="H399" t="s">
         <v>76</v>
@@ -81350,7 +83210,7 @@
     </row>
     <row r="400" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>1120</v>
+        <v>1146</v>
       </c>
       <c r="B400" t="s">
         <v>72</v>
@@ -81359,7 +83219,7 @@
         <v>73</v>
       </c>
       <c r="E400" t="s">
-        <v>1121</v>
+        <v>1147</v>
       </c>
       <c r="J400" t="s">
         <v>78</v>
@@ -81398,10 +83258,10 @@
         <v>253</v>
       </c>
       <c r="V400" t="s">
-        <v>1122</v>
+        <v>1148</v>
       </c>
       <c r="W400" t="s">
-        <v>1123</v>
+        <v>1149</v>
       </c>
       <c r="X400" t="s">
         <v>85</v>
@@ -81440,10 +83300,10 @@
         <v>253</v>
       </c>
       <c r="AJ400" t="s">
-        <v>1122</v>
+        <v>1148</v>
       </c>
       <c r="AK400" t="s">
-        <v>1123</v>
+        <v>1149</v>
       </c>
       <c r="AL400" t="s">
         <v>87</v>
@@ -81482,10 +83342,10 @@
         <v>253</v>
       </c>
       <c r="AX400" t="s">
-        <v>1122</v>
+        <v>1148</v>
       </c>
       <c r="AY400" t="s">
-        <v>1123</v>
+        <v>1149</v>
       </c>
       <c r="AZ400" t="s">
         <v>87</v>
@@ -81524,10 +83384,10 @@
         <v>253</v>
       </c>
       <c r="BL400" t="s">
-        <v>1122</v>
+        <v>1148</v>
       </c>
       <c r="BM400" t="s">
-        <v>1123</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="401" spans="1:70" x14ac:dyDescent="0.35">
@@ -82713,7 +84573,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS406" xr:uid="{9474EC47-30D3-4C5A-B630-34E0A9E1D36B}">
+  <autoFilter ref="A1:BS406" xr:uid="{21092654-BFD8-4543-8682-07498652AD43}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS406">
       <sortCondition ref="E1:E406"/>
     </sortState>
